--- a/biology/Zoologie/Baeotus_aeilus/Baeotus_aeilus.xlsx
+++ b/biology/Zoologie/Baeotus_aeilus/Baeotus_aeilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baeotus aeilus est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Nymphalinae, de la tribu des Coeini et du genre Baeotus.
 </t>
@@ -511,16 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baeotus aeilus a été décrit par l'entomologiste Caspar Stoll en 1780, sous le nom initial de Papilio aeilus[1].
-Synonymie
-Papilio aeilus Stoll, 1780 protonyme
-Eriboea aile (Hübner, 1819)
-Megistanis amazonicus (Riley, 1919)
-Baeotus amazonicus[2]
-Nom vernaculaire
-Baeotus aeilus se nomme Amazonicus Beauty en anglais[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baeotus aeilus a été décrit par l'entomologiste Caspar Stoll en 1780, sous le nom initial de Papilio aeilus.
 </t>
         </is>
       </c>
@@ -546,14 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baeotus aeilus  est un papillon d'une envergure d'environ 75 mm, à ailes postérieures dentelées avec une queue, qui présente un dimorphisme sexuel[4]. Sur le dessus les mâles ont leurs ailes marron barrées d'une bande bleue alors que les femelles sont ornées de jaune pâle.
-Le revers est blanc orné de lignes de petites marques noires avec un gros ocelle jaune proche de l'angle externe des ailes antérieures et un gros ocelle jaune pupillé de noir proche de l'angle anal des ailes postérieures.
-</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio aeilus Stoll, 1780 protonyme
+Eriboea aile (Hübner, 1819)
+Megistanis amazonicus (Riley, 1919)
+Baeotus amazonicus</t>
         </is>
       </c>
     </row>
@@ -578,13 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sa biologie est mal connue[3].
-Plantes hôtes</t>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baeotus aeilus se nomme Amazonicus Beauty en anglais.
+</t>
         </is>
       </c>
     </row>
@@ -609,16 +629,155 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baeotus aeilus  est un papillon d'une envergure d'environ 75 mm, à ailes postérieures dentelées avec une queue, qui présente un dimorphisme sexuel. Sur le dessus les mâles ont leurs ailes marron barrées d'une bande bleue alors que les femelles sont ornées de jaune pâle.
+Le revers est blanc orné de lignes de petites marques noires avec un gros ocelle jaune proche de l'angle externe des ailes antérieures et un gros ocelle jaune pupillé de noir proche de l'angle anal des ailes postérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Baeotus_aeilus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baeotus_aeilus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie est mal connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Baeotus_aeilus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baeotus_aeilus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Amérique du Sud dans l'Amazonie et en particulier au Brésil et en Guyane[1].
-Biotope
-Il réside en forêt tropicale amazonienne[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Amérique du Sud dans l'Amazonie et en particulier au Brésil et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Baeotus_aeilus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baeotus_aeilus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en forêt tropicale amazonienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Baeotus_aeilus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baeotus_aeilus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
